--- a/biology/Zoologie/Clubiona/Clubiona.xlsx
+++ b/biology/Zoologie/Clubiona/Clubiona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clubiona est un genre d'araignées aranéomorphes de la famille des Clubionidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clubiona est un genre d'araignées aranéomorphes de la famille des Clubionidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent sur tous les continents sauf aux pôles, en Amérique du Sud elles ne se trouvent qu'au Chili[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent sur tous les continents sauf aux pôles, en Amérique du Sud elles ne se trouvent qu'au Chili.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une grande partie des espèces de ce genre vit dans les zones humides et la végétation basse. Elles construisent en général des retraites de soie.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Clubiona vivent un an, sont adultes au printemps et au début de l'été.
 En Europe, on dénombre 55 espèces dont l'identification est difficile sur le terrain à cause du manque de signes distinctifs manifestes et de leur vie nocturne.
@@ -605,7 +623,9 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'accouplement dure une heure : le mâle utilise ses chélicères, longues et effilées, pour maintenir la femelle.
 Les espèces vivant dans les arbres déposent simplement leur cocon d'œufs jaune pâle dans une feuille tapissée de soie. En revanche, les femelles des espèces vivant plus près du sol recourbent une feuille de graminée de façon caractéristique (en forme de tétraèdre) et restent à surveiller jusqu'à l'éclosion des œufs.
@@ -637,9 +657,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 26/05/2024)[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 26/05/2024) :
 Clubiona abbajensis Strand, 1906
 Clubiona abboti L. Koch, 1866
 Clubiona aberrans Dankittipakul, 2012
@@ -1163,7 +1185,7 @@
 Clubiona zilla Dönitz &amp; Strand, 1906
 Clubiona zimmermanni Marples, 1964
 Clubiona zyuzini Mikhailov, 1995
-Selon World Spider Catalog (version 23.5, 2023)[2] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Clubiona arcana Scudder, 1890
 † Clubiona curvispinosa Petrunkevitch, 1922
 † Clubiona florissanti Petrunkevitch, 1922</t>
@@ -1194,12 +1216,14 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Latreille en 1804.
-Hirtia[3] et Atalia[4] ont été placés en synonymie par Simon en 1897[5].
-Tolophus[6] et Japoniona[7] ont été placés en synonymie par Deeleman-Reinhold en 2001[8].
-Epiclubiona[9], Euryclubiona[9], Gauroclubiona[9], Heteroclubiona[9], Hyloclubiona[9], Microclubiona[9], Paraclubiona[9], Anaclubiona[10], Breviclubiona[11] et Marmorclubiona[11] ont été placés en synonymie par Mikhailov en 2012[12].
+Hirtia et Atalia ont été placés en synonymie par Simon en 1897.
+Tolophus et Japoniona ont été placés en synonymie par Deeleman-Reinhold en 2001.
+Epiclubiona, Euryclubiona, Gauroclubiona, Heteroclubiona, Hyloclubiona, Microclubiona, Paraclubiona, Anaclubiona, Breviclubiona et Marmorclubiona ont été placés en synonymie par Mikhailov en 2012.
 </t>
         </is>
       </c>
@@ -1228,7 +1252,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Latreille, 1804 : « Tableau méthodique des Insectes. » Nouveau Dictionnaire d'Histoire Naturelle, Paris, vol. 24, p. 129-295.</t>
         </is>
